--- a/comparison_report.xlsx
+++ b/comparison_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,12 +451,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Expected Result</t>
+          <t>Expected Result (Version B)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Actual Result</t>
+          <t>Actual Result (Version B)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -515,12 +515,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Logo should be identical in terms of design and color.</t>
+          <t>Identical logo, color, and placement as in Version A.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Logo is identical.</t>
+          <t>Identical logo, color, and placement as in Version A.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -537,22 +537,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Verify "OPEN SOURCE HR MANAGEMENT" Text</t>
+          <t>Verify "Open Source HR Management" Text</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Compare the "OPEN SOURCE HR MANAGEMENT" text below the logo in Version B with Version A.</t>
+          <t>Compare the "Open Source HR Management" text in Version B with Version A.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Text should be identical in terms of font, size, and color.</t>
+          <t>Identical text, font, color, and placement as in Version A.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Text is identical.</t>
+          <t>Identical text, font, color, and placement as in Version A.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -569,27 +569,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Verify Page Title Text</t>
+          <t>Verify Page Title</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Compare the main page title ("Login" in Version A) in Version B.</t>
+          <t>Compare the page title in Version B with Version A.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Title should be "Login".</t>
+          <t>"Login" should be changed to "Sign-In".</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Title is "Sign-In".</t>
+          <t>"Sign-In" is displayed.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -601,22 +601,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Verify Username Label Text</t>
+          <t>Verify Page Title Font</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Compare the username label text in Version B with Version A.</t>
+          <t>Compare the page title font in Version B with Version A.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Label should be "Login-ID".</t>
+          <t>Font, size, weight, and color should be consistent with Version A.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Label is "Username".</t>
+          <t>Font, size, weight appear consistent but color is different from Version A.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -633,27 +633,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Verify Username Placeholder Text</t>
+          <t>Verify Username Label</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Compare the username placeholder text in Version B with Version A.</t>
+          <t>Compare the Username label in Version B with Version A.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Placeholder should be empty.</t>
+          <t>"Login-ID" should be replaced with "Username".</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Placeholder is "Username".</t>
+          <t>"Username" is displayed.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -665,22 +665,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Verify Password Label Text</t>
+          <t>Verify Username Field Placeholder</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Compare the password label text in Version B with Version A.</t>
+          <t>Compare the username field placeholder in Version B with Version A.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Label should be "Password".</t>
+          <t>"Username" placeholder should be present.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Label is "Password".</t>
+          <t>"Username" placeholder is present.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -697,27 +697,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Verify Password Placeholder Text</t>
+          <t>Verify Password Label</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Compare the password placeholder text in Version B with Version A.</t>
+          <t>Compare the Password label in Version B with Version A.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Placeholder should be empty.</t>
+          <t>"Password" label should be present.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Placeholder is "Password".</t>
+          <t>"Password" label is present.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -729,27 +729,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Verify Login Button Text</t>
+          <t>Verify Password Field Placeholder</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Compare the login button text in Version B with Version A.</t>
+          <t>Compare the password field placeholder in Version B with Version A.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Button text should be "Login".</t>
+          <t>"Password" placeholder should be present.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Button text is "Sign In".</t>
+          <t>"Password" placeholder is present.</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -761,54 +761,54 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Verify Login Button Color</t>
+          <t>Verify Login Button Text</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Compare the login button color in Version B with Version A.</t>
+          <t>Compare the login button text in Version B with Version A.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Button color should be orange.</t>
+          <t>"Login" should be changed to "Sign In".</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Button color is red.</t>
+          <t>"Sign In" is displayed.</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>TC_10</t>
+          <t>TC_010</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Verify Login Button Shape</t>
+          <t>Verify Login Button Color</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Compare the shape of the login button in Version B with Version A.</t>
+          <t>Compare the login button color in Version B with Version A.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Shape should be rounded rectangle.</t>
+          <t>Orange color should be changed to red.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Shape is rounded rectangle.</t>
+          <t>Red color is displayed.</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -820,59 +820,59 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>TC_11</t>
+          <t>TC_011</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Verify "HR for ALL" logo presence</t>
+          <t>Verify "Forgot your password?" Link</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Check for the presence of the "HR for ALL" logo and its circle container in Version B.</t>
+          <t>Check for the presence of the "Forgot your password?" link in Version B.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>"HR for ALL" logo and container should be present.</t>
+          <t>"Forgot your password?" link should be present.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>"HR for ALL" logo and container are not present.</t>
+          <t>"Forgot your password?" link is present.</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>TC_12</t>
+          <t>TC_012</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Verify Background Color Left Section</t>
+          <t>Verify "Forgot your password?" Link Color</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Compare the background color of the left section of the screen in Version B with Version A.</t>
+          <t>Compare the color of "Forgot your password?" in Version B with Version A.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Background color should be white.</t>
+          <t>The link color should be consistent with other text elements in Version B and different from Version A.</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Background color is white.</t>
+          <t>The link color is red and consistent with other elements, and different from Version A.</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -884,59 +884,59 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>TC_13</t>
+          <t>TC_013</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Verify Background Color Right Section</t>
+          <t>Verify Background Color</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Compare the background color of the right section of the screen in Version B with Version A.</t>
+          <t>Compare the background color of Version B with Version A.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Background color should be orange.</t>
+          <t>White background on the left side and orange on the right side. Should differ from Version A.</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Background color is red.</t>
+          <t>White background on the left side and red on the right side. Differs from Version A.</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>TC_14</t>
+          <t>TC_014</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Verify Username Icon</t>
+          <t>Verify Input Field Background Color</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Compare the Username icon in Version B with Version A.</t>
+          <t>Compare the input field background color of Version B with Version A.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Icon should be a person icon.</t>
+          <t>White/Light Gray background, potentially different from Version A.</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Icon is a person icon.</t>
+          <t>White background, different from Version A.</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -948,27 +948,27 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>TC_15</t>
+          <t>TC_015</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Verify Password Icon</t>
+          <t>Verify Input Field Border Color</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Compare the Password icon in Version B with Version A.</t>
+          <t>Compare the input field border color of Version B with Version A.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Icon should be a key icon.</t>
+          <t>Light Gray border, potentially different from Version A.</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Icon is a key icon.</t>
+          <t>Light Gray border, different from Version A.</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -980,96 +980,192 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>TC_16</t>
+          <t>TC_016</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Verify "Forgot your password?" link</t>
+          <t>Verify Input Field Padding</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Check the presence and text of the "Forgot your password?" link in Version B.</t>
+          <t>Compare the input field padding in Version B with Version A.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>The link should not be present.</t>
+          <t>Padding might be adjusted.</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>The link is present with text "Forgot your password?".</t>
+          <t>Padding appears to be adjusted compared to Version A.</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>TC_17</t>
+          <t>TC_017</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Verify "Forgot your password?" link color</t>
+          <t>Verify Spacing Between Elements</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Compare the color of the "Forgot your password?" link in Version B (if present) with what would be expected based on Version A's overall color scheme.</t>
+          <t>Compare the spacing between elements like title, input fields, and button in Version B with Version A.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>The link color should be orange (or a similar color fitting Version A's scheme).</t>
+          <t>Spacing might be adjusted.</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>The link color is red.</t>
+          <t>Spacing appears to be adjusted compared to Version A.</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>TC_18</t>
+          <t>TC_018</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Verify pre-filled username and password</t>
+          <t>Verify Username Icon</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Verify if username and password fields are pre-filled in Version B</t>
+          <t>Verify the presence and appearance of the Username icon.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Username and password fields should not be pre-filled</t>
+          <t>A person icon should be displayed before "Username".</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Username and Password fields are pre-filled</t>
+          <t>A person icon is displayed before "Username".</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>TC_019</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Verify Password Icon</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Verify the presence and appearance of the Password icon.</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>A key icon should be displayed before "Password".</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>A key icon is displayed before "Password".</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>TC_020</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Verify White Circle on Right Side</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Verify the presence of a white circle on the red/orange background.</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Should not be present in Version A, present in Version B.</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>White circle present in Version B, not present in Version A.</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>TC_021</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>HR For All Graphic</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Verify the HR For All graphic is not present in Version B.</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Should not be present</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Not Present</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>

--- a/comparison_report.xlsx
+++ b/comparison_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,17 +510,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Compare the OrangeHRM logo in Version B with Version A.</t>
+          <t>Inspect the OrangeHRM logo.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Identical logo, color, and placement as in Version A.</t>
+          <t>Identical to Version A's logo (including color, font, and size).</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Identical logo, color, and placement as in Version A.</t>
+          <t>Identical to Version A</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -542,17 +542,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Compare the "Open Source HR Management" text in Version B with Version A.</t>
+          <t>Inspect the text "Open Source HR Management" below the logo.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Identical text, font, color, and placement as in Version A.</t>
+          <t>Identical to Version A (font, size, color).</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Identical text, font, color, and placement as in Version A.</t>
+          <t>Identical to Version A</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -569,27 +569,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Verify Page Title</t>
+          <t>Verify Login Header Text</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Compare the page title in Version B with Version A.</t>
+          <t>Inspect the main header text.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>"Login" should be changed to "Sign-In".</t>
+          <t>"Login" as in Version A.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>"Sign-In" is displayed.</t>
+          <t>"Sign-In"</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -601,22 +601,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Verify Page Title Font</t>
+          <t>Verify Login Header Font</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Compare the page title font in Version B with Version A.</t>
+          <t>Inspect the font of the main header.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Font, size, weight, and color should be consistent with Version A.</t>
+          <t>Identical font type, size, and weight as Version A.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Font, size, weight appear consistent but color is different from Version A.</t>
+          <t>Different font weight (appears bolder).</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -638,22 +638,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Compare the Username label in Version B with Version A.</t>
+          <t>Inspect the username label.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>"Login-ID" should be replaced with "Username".</t>
+          <t>"Login-ID" with the person icon as in Version A.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>"Username" is displayed.</t>
+          <t>"Username" with person icon.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -665,27 +665,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Verify Username Field Placeholder</t>
+          <t>Verify Username Input Field</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Compare the username field placeholder in Version B with Version A.</t>
+          <t>Inspect the username input field.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>"Username" placeholder should be present.</t>
+          <t>Similar styling and placement as Version A.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>"Username" placeholder is present.</t>
+          <t>Similar styling but different placement (further down the page)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -702,17 +702,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Compare the Password label in Version B with Version A.</t>
+          <t>Inspect the password label.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>"Password" label should be present.</t>
+          <t>"Password" with the key icon as in Version A.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>"Password" label is present.</t>
+          <t>"Password" with key icon.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -729,27 +729,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Verify Password Field Placeholder</t>
+          <t>Verify Password Input Field</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Compare the password field placeholder in Version B with Version A.</t>
+          <t>Inspect the password input field.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>"Password" placeholder should be present.</t>
+          <t>Similar styling and placement as Version A.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>"Password" placeholder is present.</t>
+          <t>Similar styling but different placement (further down the page)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -766,22 +766,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Compare the login button text in Version B with Version A.</t>
+          <t>Inspect the text on the login button.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>"Login" should be changed to "Sign In".</t>
+          <t>"Login" as in Version A.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>"Sign In" is displayed.</t>
+          <t>"Sign In"</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -798,22 +798,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Compare the login button color in Version B with Version A.</t>
+          <t>Inspect the background color of the login button.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Orange color should be changed to red.</t>
+          <t>Orange as in Version A.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Red color is displayed.</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -825,27 +825,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Verify "Forgot your password?" Link</t>
+          <t>Verify Login Button Shape</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Check for the presence of the "Forgot your password?" link in Version B.</t>
+          <t>Inspect the shape of the login button.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>"Forgot your password?" link should be present.</t>
+          <t>Rounded rectangle similar to Version A.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>"Forgot your password?" link is present.</t>
+          <t>Rounded rectangle with more pronounced rounded corners.</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -857,22 +857,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Verify "Forgot your password?" Link Color</t>
+          <t>Verify Background Color Left Side</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Compare the color of "Forgot your password?" in Version B with Version A.</t>
+          <t>Inspect the background color of the left side of the screen.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>The link color should be consistent with other text elements in Version B and different from Version A.</t>
+          <t>White as in Version A.</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>The link color is red and consistent with other elements, and different from Version A.</t>
+          <t>White</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -889,27 +889,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Verify Background Color</t>
+          <t>Verify Background Color Right Side</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Compare the background color of Version B with Version A.</t>
+          <t>Inspect the background color of the right side of the screen.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>White background on the left side and orange on the right side. Should differ from Version A.</t>
+          <t>Orange, similar to the color surrounding the orange image in Version A.</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>White background on the left side and red on the right side. Differs from Version A.</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -921,27 +921,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Verify Input Field Background Color</t>
+          <t>Verify Orange Image and Text</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Compare the input field background color of Version B with Version A.</t>
+          <t>Inspect the presence of the orange image and the "HR for ALL" text.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>White/Light Gray background, potentially different from Version A.</t>
+          <t>Should be present as in Version A.</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>White background, different from Version A.</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -953,27 +953,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Verify Input Field Border Color</t>
+          <t>Verify "Forgot your password?" Link</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Compare the input field border color of Version B with Version A.</t>
+          <t>Inspect the presence of the "Forgot your password?" link.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Light Gray border, potentially different from Version A.</t>
+          <t>Absent as in Version A.</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Light Gray border, different from Version A.</t>
+          <t>Present below the Sign In button.</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -985,27 +985,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Verify Input Field Padding</t>
+          <t>Verify "Forgot your password?" Link Color</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Compare the input field padding in Version B with Version A.</t>
+          <t>Inspect the color of the "Forgot your password?" link.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Padding might be adjusted.</t>
+          <t>N/A (link not present in Version A).</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Padding appears to be adjusted compared to Version A.</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -1017,27 +1017,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Verify Spacing Between Elements</t>
+          <t>Verify Overall Layout</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Compare the spacing between elements like title, input fields, and button in Version B with Version A.</t>
+          <t>Inspect the overall layout of the login form.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Spacing might be adjusted.</t>
+          <t>Similar structure and element placement as Version A.</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Spacing appears to be adjusted compared to Version A.</t>
+          <t>Different element placement and the right side has a significant color and layout change compared to Version A.</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -1049,27 +1049,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Verify Username Icon</t>
+          <t>Verify Padding and Spacing Around Username Input</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Verify the presence and appearance of the Username icon.</t>
+          <t>Inspect the padding and spacing around the username input field.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>A person icon should be displayed before "Username".</t>
+          <t>Similar to Version A.</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>A person icon is displayed before "Username".</t>
+          <t>Different padding and spacing.</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -1081,27 +1081,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Verify Password Icon</t>
+          <t>Verify Padding and Spacing Around Password Input</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Verify the presence and appearance of the Password icon.</t>
+          <t>Inspect the padding and spacing around the password input field.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>A key icon should be displayed before "Password".</t>
+          <t>Similar to Version A.</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>A key icon is displayed before "Password".</t>
+          <t>Different padding and spacing.</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -1118,54 +1118,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Verify the presence of a white circle on the red/orange background.</t>
+          <t>Inspect the presence of a white circle element on the right side.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Should not be present in Version A, present in Version B.</t>
+          <t>No white circle should be present.</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>White circle present in Version B, not present in Version A.</t>
+          <t>White circle is present.</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>TC_021</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>HR For All Graphic</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Verify the HR For All graphic is not present in Version B.</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Should not be present</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Not Present</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
     </row>
